--- a/Measures/10rounds2er.xlsx
+++ b/Measures/10rounds2er.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saschahoppler/Desktop/Uni/DDBS/Project/DDBS-BF/Measures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CDAF40EA-6C79-464E-A4C5-5A25536D5155}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{754CED81-C5CE-1A4A-B953-B1CAC15C306C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="440" windowWidth="25280" windowHeight="14640"/>
   </bookViews>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2367,24 +2367,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="109" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="AC1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2473,7 +2470,7 @@
         <v>17119</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2562,7 +2559,7 @@
         <v>11026</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2651,7 +2648,7 @@
         <v>10482</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2740,7 +2737,7 @@
         <v>10472</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2829,7 +2826,7 @@
         <v>10141</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2918,7 +2915,7 @@
         <v>11087</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3007,7 +3004,7 @@
         <v>11076</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3096,7 +3093,7 @@
         <v>12575</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3185,7 +3182,7 @@
         <v>13233</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3274,7 +3271,7 @@
         <v>13342</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29">
       <c r="B13">
         <v>1</v>
       </c>
@@ -3357,7 +3354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -3469,8 +3466,11 @@
         <f t="shared" si="0"/>
         <v>134217728</v>
       </c>
+      <c r="AC14" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>11081.5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>12055.3</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
         <v>0</v>
       </c>
